--- a/Test/定制格式/吟唱技能配置表.xlsx
+++ b/Test/定制格式/吟唱技能配置表.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\plan\005配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="780" windowWidth="27975" windowHeight="11670"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="范围技能生效配置表" sheetId="2" r:id="rId1"/>
+    <sheet name="范围技能生效配置表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,121 +19,113 @@
     <author>李超</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0 否
+          <t xml:space="preserve">0 否
 1 是</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0 不限
+          <t xml:space="preserve">0 不限
 目前仅JSON启用，在数据过多时自动分成多个配置文件</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>文件最顶级的结构的名称
+          <t xml:space="preserve">文件最顶级的结构的名称
 Erlang的主函数名</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Erlang的第一级记录名</t>
+          <t xml:space="preserve">Erlang的第一级记录名</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Erlang包含的头文件
+          <t xml:space="preserve">Erlang包含的头文件
 逗号分隔多个</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>用于并联多张配置表
+          <t xml:space="preserve">用于并联多张配置表
 此功能暂未实现</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>需要单独分类到其他文件夹的，在这里填写文件夹名，会复制一份到该目录
+          <t xml:space="preserve">需要单独分类到其他文件夹的，在这里填写文件夹名，会复制一份到该目录
 逗号分隔</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>支持3种特殊处理：
+          <t xml:space="preserve">支持3种特殊处理：
 1. 所有：一个字段的所有值
 2. 常量：返回一个常量
 3. 分组：按某个字段的值将索引分组
@@ -150,17 +137,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>str 字符串
+          <t xml:space="preserve">str 字符串
 num 数字
 log 逻辑：true,false,null
 var 变量：程序用的
@@ -172,48 +158,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>切换方式为修改 主键（红色字段） 的 后台·主键做结构名 字段值
+          <t xml:space="preserve">切换方式为修改 主键（红色字段） 的 后台·主键做结构名 字段值
 0 = 以索引为子对象名
 1 = 标准数组</t>
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0 否
+          <t xml:space="preserve">0 否
 1 是</t>
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>str 字符串
+          <t xml:space="preserve">str 字符串
 num 数字
 log 逻辑：true,false,null
 var 变量：程序用的
@@ -225,17 +208,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>切换方式为修改 主键（红色字段） 的 后台·主键做结构名 字段值
+          <t xml:space="preserve">切换方式为修改 主键（红色字段） 的 后台·主键做结构名 字段值
 0 = 标准记录格式。
 1 = 纯列表格式，禁止嵌套。
 2 = 纯数字，仅支持 主键 和 值 两列。（只允许输出一个字段）
@@ -243,17 +225,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>0 否
+          <t xml:space="preserve">0 否
 1 是</t>
         </r>
       </text>
@@ -263,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>是否输出</t>
   </si>
@@ -278,7 +259,6 @@
   </si>
   <si>
     <t>输出编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>顶级结构名</t>
@@ -294,202 +274,132 @@
   </si>
   <si>
     <t>复件目录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊处理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>前端·输出参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay_skill</t>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UTF-8</t>
   </si>
   <si>
     <t>roottest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>后端·输出参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>erl</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>record/rec_skill.hrl</t>
+  </si>
+  <si>
+    <t>管理后台·输出参数</t>
+  </si>
+  <si>
     <t>php</t>
   </si>
   <si>
+    <t>dictItem</t>
+  </si>
+  <si>
     <t>前端·数据类型</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>前端·字段名</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>delay_id</t>
+  </si>
+  <si>
+    <t>interrupt_id</t>
+  </si>
+  <si>
+    <t>前端·输出结构</t>
+  </si>
+  <si>
+    <t>前端·空字段不输出</t>
+  </si>
+  <si>
     <t>前端·参数等级</t>
   </si>
   <si>
     <t>后端·数据类型</t>
   </si>
   <si>
+    <t>后端·字段名</t>
+  </si>
+  <si>
     <t>后端·输出结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后端·空字段不输出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>后端·参数等级</t>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>delay_skill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理后台·输出参数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dictItem</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端·字段名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>delay_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>interrupt_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端·输出结构</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端·空字段不输出</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端·字段名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>吟唱技能id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后续技能id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>可打断吟唱技能的技能id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>record/rec_skill.hrl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -497,12 +407,175 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,18 +590,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -538,104 +797,346 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -643,127 +1144,123 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="77">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="2"/>
-    <cellStyle name="常规 11" xfId="3"/>
-    <cellStyle name="常规 12" xfId="1"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 2 2" xfId="5"/>
-    <cellStyle name="常规 2 3" xfId="6"/>
-    <cellStyle name="常规 3" xfId="7"/>
-    <cellStyle name="常规 4" xfId="8"/>
-    <cellStyle name="常规 4 2" xfId="9"/>
-    <cellStyle name="常规 4 2 2" xfId="10"/>
-    <cellStyle name="常规 4 2 2 2" xfId="11"/>
-    <cellStyle name="常规 4 2 3" xfId="12"/>
-    <cellStyle name="常规 4 3" xfId="13"/>
-    <cellStyle name="常规 4 3 2" xfId="14"/>
-    <cellStyle name="常规 4 4" xfId="15"/>
-    <cellStyle name="常规 5" xfId="16"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="常规 6 2" xfId="18"/>
-    <cellStyle name="常规 6 2 2" xfId="19"/>
-    <cellStyle name="常规 6 3" xfId="20"/>
-    <cellStyle name="常规 7" xfId="21"/>
-    <cellStyle name="常规 7 2" xfId="22"/>
-    <cellStyle name="常规 7 2 2" xfId="23"/>
-    <cellStyle name="常规 7 3" xfId="24"/>
-    <cellStyle name="常规 8" xfId="25"/>
-    <cellStyle name="常规 8 2" xfId="26"/>
-    <cellStyle name="常规 9" xfId="27"/>
-    <cellStyle name="常规 9 2" xfId="28"/>
+    <cellStyle name="常规 4 2 2" xfId="1"/>
+    <cellStyle name="常规 4 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="3" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币" xfId="6" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="7" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="常规 7 3" xfId="10"/>
+    <cellStyle name="千位分隔" xfId="11" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="12" builtinId="40"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="百分比" xfId="14" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
+    <cellStyle name="标题" xfId="21" builtinId="15"/>
+    <cellStyle name="常规 12" xfId="22"/>
+    <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="24" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="25" builtinId="17"/>
+    <cellStyle name="常规 4 2 2 2" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="28" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
+    <cellStyle name="输出" xfId="30" builtinId="21"/>
+    <cellStyle name="计算" xfId="31" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="32" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="33" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="35" builtinId="24"/>
+    <cellStyle name="汇总" xfId="36" builtinId="25"/>
+    <cellStyle name="常规 4 3 2" xfId="37"/>
+    <cellStyle name="好" xfId="38" builtinId="26"/>
+    <cellStyle name="适中" xfId="39" builtinId="28"/>
+    <cellStyle name="常规 8 2" xfId="40"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="41" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="42" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="43" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="44" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="45" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="46" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="50" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="51" builtinId="45"/>
+    <cellStyle name="常规 2 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="54" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="56"/>
+    <cellStyle name="常规 10" xfId="57"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="58" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="59" builtinId="52"/>
+    <cellStyle name="常规 11" xfId="60"/>
+    <cellStyle name="常规 2" xfId="61"/>
+    <cellStyle name="常规 3" xfId="62"/>
+    <cellStyle name="常规 4" xfId="63"/>
+    <cellStyle name="常规 4 2" xfId="64"/>
+    <cellStyle name="常规 4 2 3" xfId="65"/>
+    <cellStyle name="常规 4 3" xfId="66"/>
+    <cellStyle name="常规 5" xfId="67"/>
+    <cellStyle name="常规 6 2" xfId="68"/>
+    <cellStyle name="常规 6 2 2" xfId="69"/>
+    <cellStyle name="常规 6 3" xfId="70"/>
+    <cellStyle name="常规 7" xfId="71"/>
+    <cellStyle name="常规 7 2" xfId="72"/>
+    <cellStyle name="常规 7 2 2" xfId="73"/>
+    <cellStyle name="常规 8" xfId="74"/>
+    <cellStyle name="常规 9" xfId="75"/>
+    <cellStyle name="常规 9 2" xfId="76"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -810,7 +1307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -845,7 +1342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1053,420 +1550,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="2"/>
-    <col min="30" max="30" width="34.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.2857142857143" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.8571428571429" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.2857142857143" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.7142857142857" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.8571428571429" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.1428571428571" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.4285714285714" style="4" customWidth="1"/>
+    <col min="9" max="9" width="30.4285714285714" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.7142857142857" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.2857142857143" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.4285714285714" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.2857142857143" style="4" customWidth="1"/>
+    <col min="14" max="15" width="8.14285714285714" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.1428571428571" style="4" customWidth="1"/>
+    <col min="17" max="17" width="13.5714285714286" style="4" customWidth="1"/>
+    <col min="18" max="19" width="8.14285714285714" style="4" customWidth="1"/>
+    <col min="20" max="20" width="6.71428571428571" style="4" customWidth="1"/>
+    <col min="21" max="21" width="5.71428571428571" style="4" customWidth="1"/>
+    <col min="22" max="22" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="23" max="23" width="12.2857142857143" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.1428571428571" style="4" customWidth="1"/>
+    <col min="25" max="25" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="26" max="26" width="12.2857142857143" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.28571428571429" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.71428571428571" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9.14285714285714" style="4"/>
+    <col min="30" max="30" width="34.1428571428571" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="12.95" customHeight="1">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="12.95" customHeight="1" spans="2:26">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="10"/>
-      <c r="Z1" s="4"/>
+      <c r="Q1" s="6"/>
+      <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="2" customFormat="1" ht="12.95" customHeight="1" spans="1:30">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>26</v>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="3" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:30">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="C3" s="3" t="str">
         <f>C2</f>
         <v>delay_skill</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>26</v>
+      <c r="AD3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="str">
+    <row r="4" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:30">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
         <f>C3</f>
         <v>delay_skill</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="Z4" s="12"/>
+      <c r="AD4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="Z4" s="9"/>
-      <c r="AD4" s="8" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="7" s="2" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A6" s="5" t="s">
+    <row r="8" s="2" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="12.95" customHeight="1" spans="1:2">
+      <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="B10" s="3" t="str">
+        <f t="shared" ref="B10:D11" si="0">B5</f>
+        <v>int</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>int</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>int</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" s="5" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8" t="str">
-        <f t="shared" ref="B10:D11" si="0">B5</f>
-        <v>num</v>
-      </c>
-      <c r="C10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>num</v>
-      </c>
-      <c r="D10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>num</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>id</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>delay_id</v>
       </c>
-      <c r="D11" s="8" t="str">
+      <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>interrupt_id</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
+    <row r="12" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
+    <row r="13" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" ht="12.95" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="8">
+    <row r="14" s="3" customFormat="1" ht="12.95" customHeight="1" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="3" customFormat="1">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:18">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:30">
-      <c r="B16" s="12">
+    <row r="16" spans="2:4">
+      <c r="B16" s="5">
         <v>21015</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="5">
         <v>21010</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="12">
+      <c r="B17" s="5">
         <v>21016</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="5">
         <v>21011</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="12">
+      <c r="B18" s="5">
         <v>21017</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="5">
         <v>21012</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="12">
+      <c r="B19" s="5">
         <v>21018</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="5">
         <v>21013</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="12">
+      <c r="B20" s="5">
         <v>21019</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="5">
         <v>21014</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17 B19:B20">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17 C19">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16 C18 C20">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+      <formula1>"json,erl,php"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"ANSI,UTF-8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
-      <formula1>"json,erl,php"</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>